--- a/reports/raw-views/assets/tables/micro_single_lemma_max.xlsx
+++ b/reports/raw-views/assets/tables/micro_single_lemma_max.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,10 +461,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1070101</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1070101</v>
       </c>
       <c r="B2" t="n">
         <v>0.4465635716915131</v>
@@ -480,10 +478,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1070102</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1070102</v>
       </c>
       <c r="B3" t="n">
         <v>0.7405539751052856</v>
@@ -499,10 +495,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1070103</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1070103</v>
       </c>
       <c r="B4" t="n">
         <v>0.7422360777854919</v>
@@ -518,10 +512,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1070105</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1070105</v>
       </c>
       <c r="B5" t="n">
         <v>0.6905345320701599</v>
@@ -537,10 +529,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1070106</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1070106</v>
       </c>
       <c r="B6" t="n">
         <v>0.9617677927017212</v>
@@ -556,10 +546,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1070107</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1070107</v>
       </c>
       <c r="B7" t="n">
         <v>0.7299776077270508</v>
@@ -575,10 +563,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1070109</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1070109</v>
       </c>
       <c r="B8" t="n">
         <v>0.6724001169204712</v>
@@ -594,10 +580,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1070110</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1070110</v>
       </c>
       <c r="B9" t="n">
         <v>0.5322105884552002</v>
@@ -613,10 +597,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1070111</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1070111</v>
       </c>
       <c r="B10" t="n">
         <v>0.7473574876785278</v>
@@ -632,10 +614,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1070112</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1070112</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
@@ -649,10 +629,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1070113</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1070113</v>
       </c>
       <c r="B12" t="n">
         <v>0.7596328258514404</v>
@@ -668,10 +646,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1070114</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1070114</v>
       </c>
       <c r="B13" t="n">
         <v>0.7299959659576416</v>
@@ -687,10 +663,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1070115</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1070115</v>
       </c>
       <c r="B14" t="n">
         <v>0.6533894538879395</v>
@@ -706,10 +680,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1070117</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1070117</v>
       </c>
       <c r="B15" t="n">
         <v>0.7214872241020203</v>
@@ -721,10 +693,8 @@
       <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1080101</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1080101</v>
       </c>
       <c r="B16" t="n">
         <v>0.783109724521637</v>
@@ -740,10 +710,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1080102</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1080102</v>
       </c>
       <c r="B17" t="n">
         <v>0.654712438583374</v>
@@ -759,10 +727,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1080103</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1080103</v>
       </c>
       <c r="B18" t="n">
         <v>0.6354497671127319</v>
@@ -778,10 +744,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1080104</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1080104</v>
       </c>
       <c r="B19" t="n">
         <v>0.5380998849868774</v>
@@ -797,10 +761,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1080105</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1080105</v>
       </c>
       <c r="B20" t="n">
         <v>0.6482784748077393</v>
@@ -816,10 +778,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1080106</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1080106</v>
       </c>
       <c r="B21" t="n">
         <v>0.7504193782806396</v>
@@ -835,10 +795,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1080107</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1080107</v>
       </c>
       <c r="B22" t="n">
         <v>0.6561062335968018</v>
@@ -854,10 +812,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1080108</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1080108</v>
       </c>
       <c r="B23" t="n">
         <v>0.8147828578948975</v>
@@ -873,10 +829,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1080109</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1080109</v>
       </c>
       <c r="B24" t="n">
         <v>0.7084392309188843</v>
@@ -892,10 +846,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1080110</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1080110</v>
       </c>
       <c r="B25" t="n">
         <v>0.7534863948822021</v>
@@ -911,10 +863,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1080111</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1080111</v>
       </c>
       <c r="B26" t="n">
         <v>0.8412248492240906</v>
@@ -930,10 +880,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1080112</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1080112</v>
       </c>
       <c r="B27" t="n">
         <v>0.8658062815666199</v>
@@ -949,10 +897,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1080113</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1080113</v>
       </c>
       <c r="B28" t="n">
         <v>0.6154610514640808</v>
@@ -968,10 +914,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1080114</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1080114</v>
       </c>
       <c r="B29" t="n">
         <v>0.814123809337616</v>
@@ -987,10 +931,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1080201</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1080201</v>
       </c>
       <c r="B30" t="n">
         <v>0.3758595287799835</v>
@@ -1006,10 +948,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1080202</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1080202</v>
       </c>
       <c r="B31" t="n">
         <v>0.5196549892425537</v>
@@ -1025,10 +965,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1080203</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1080203</v>
       </c>
       <c r="B32" t="n">
         <v>0.585332989692688</v>
@@ -1044,10 +982,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1080301</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1080301</v>
       </c>
       <c r="B33" t="n">
         <v>0.8791057467460632</v>
@@ -1063,10 +999,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1080302</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1080302</v>
       </c>
       <c r="B34" t="n">
         <v>0.8632532358169556</v>
@@ -1082,10 +1016,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1080303</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1080303</v>
       </c>
       <c r="B35" t="n">
         <v>0.9046720266342163</v>
@@ -1101,10 +1033,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1080304</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1080304</v>
       </c>
       <c r="B36" t="n">
         <v>0.5326045751571655</v>
@@ -1120,10 +1050,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1080305</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1080305</v>
       </c>
       <c r="B37" t="n">
         <v>0.7443169355392456</v>
@@ -1139,10 +1067,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1080306</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1080306</v>
       </c>
       <c r="B38" t="n">
         <v>0.8192140460014343</v>
@@ -1158,10 +1084,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1080307</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1080307</v>
       </c>
       <c r="B39" t="n">
         <v>0.6466858983039856</v>
@@ -1177,10 +1101,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1080308</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1080308</v>
       </c>
       <c r="B40" t="n">
         <v>0.5765455961227417</v>
@@ -1196,10 +1118,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1080401</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1080401</v>
       </c>
       <c r="B41" t="n">
         <v>0.6558920741081238</v>
@@ -1215,10 +1135,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1080402</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>1080402</v>
       </c>
       <c r="B42" t="n">
         <v>0.4671673774719238</v>
@@ -1234,10 +1152,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1080403</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>1080403</v>
       </c>
       <c r="B43" t="n">
         <v>0.7265245914459229</v>
@@ -1253,10 +1169,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1080404</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>1080404</v>
       </c>
       <c r="B44" t="n">
         <v>0.5942167043685913</v>
@@ -1272,10 +1186,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1080405</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>1080405</v>
       </c>
       <c r="B45" t="n">
         <v>0.6561801433563232</v>
@@ -1289,10 +1201,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1080406</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>1080406</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
@@ -1306,10 +1216,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1080407</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>1080407</v>
       </c>
       <c r="B47" t="n">
         <v>0.7662181854248047</v>
@@ -1325,10 +1233,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1080408</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>1080408</v>
       </c>
       <c r="B48" t="n">
         <v>0.5767502188682556</v>
@@ -1344,10 +1250,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1080409</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>1080409</v>
       </c>
       <c r="B49" t="n">
         <v>0.630707859992981</v>
@@ -1363,10 +1267,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1080410</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>1080410</v>
       </c>
       <c r="B50" t="n">
         <v>0.6798661947250366</v>
@@ -1382,10 +1284,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1080411</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>1080411</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
@@ -1397,10 +1297,8 @@
       <c r="E51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1080412</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>1080412</v>
       </c>
       <c r="B52" t="n">
         <v>0.5897393226623535</v>
@@ -1416,10 +1314,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1080413</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>1080413</v>
       </c>
       <c r="B53" t="n">
         <v>0.8164691925048828</v>
@@ -1435,10 +1331,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1080414</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>1080414</v>
       </c>
       <c r="B54" t="n">
         <v>0.8106653690338135</v>
@@ -1454,10 +1348,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1080415</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>1080415</v>
       </c>
       <c r="B55" t="n">
         <v>0.6438583135604858</v>
@@ -1473,10 +1365,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1080416</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>1080416</v>
       </c>
       <c r="B56" t="n">
         <v>0.8036994934082031</v>
@@ -1492,10 +1382,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1080417</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>1080417</v>
       </c>
       <c r="B57" t="n">
         <v>0.7809160947799683</v>
@@ -1511,10 +1399,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1080418</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>1080418</v>
       </c>
       <c r="B58" t="n">
         <v>0.6140484809875488</v>
@@ -1530,10 +1416,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1080419</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>1080419</v>
       </c>
       <c r="B59" t="n">
         <v>0.8101041316986084</v>
@@ -1549,10 +1433,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1080420</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>1080420</v>
       </c>
       <c r="B60" t="n">
         <v>0.7523071765899658</v>
@@ -1568,10 +1450,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1080422</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>1080422</v>
       </c>
       <c r="B61" t="n">
         <v>0.6237326264381409</v>
@@ -1587,10 +1467,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1080426</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>1080426</v>
       </c>
       <c r="B62" t="n">
         <v>0.7249420881271362</v>
@@ -1602,10 +1480,8 @@
       <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1090101</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>1090101</v>
       </c>
       <c r="B63" t="n">
         <v>0.3990725576877594</v>
@@ -1621,10 +1497,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1090102</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>1090102</v>
       </c>
       <c r="B64" t="n">
         <v>0.6224327683448792</v>
@@ -1640,10 +1514,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1090103</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>1090103</v>
       </c>
       <c r="B65" t="n">
         <v>0.71296226978302</v>
@@ -1659,10 +1531,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1090104</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>1090104</v>
       </c>
       <c r="B66" t="n">
         <v>0.6411948204040527</v>
@@ -1678,10 +1548,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1090105</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>1090105</v>
       </c>
       <c r="B67" t="n">
         <v>0.4353178739547729</v>
@@ -1697,10 +1565,8 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1090106</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>1090106</v>
       </c>
       <c r="B68" t="n">
         <v>0.5985871553421021</v>
@@ -1716,10 +1582,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1090107</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>1090107</v>
       </c>
       <c r="B69" t="n">
         <v>0.8108614683151245</v>
@@ -1735,10 +1599,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1090109</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>1090109</v>
       </c>
       <c r="B70" t="n">
         <v>0.5363293886184692</v>
@@ -1754,10 +1616,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1090110</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>1090110</v>
       </c>
       <c r="B71" t="n">
         <v>0.2370181977748871</v>
@@ -1773,10 +1633,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1090111</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>1090111</v>
       </c>
       <c r="B72" t="n">
         <v>0.7949709296226501</v>
@@ -1792,10 +1650,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>1090112</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>1090112</v>
       </c>
       <c r="B73" t="n">
         <v>0.8847963213920593</v>
@@ -1811,10 +1667,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1090113</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>1090113</v>
       </c>
       <c r="B74" t="n">
         <v>0.6097773313522339</v>
@@ -1830,10 +1684,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1090114</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>1090114</v>
       </c>
       <c r="B75" t="n">
         <v>0.5130618810653687</v>
@@ -1849,10 +1701,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1090115</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>1090115</v>
       </c>
       <c r="B76" t="n">
         <v>0.8401663303375244</v>
@@ -1868,10 +1718,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1100101</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>1100101</v>
       </c>
       <c r="B77" t="n">
         <v>0.6302219033241272</v>
@@ -1887,10 +1735,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1100102</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>1100102</v>
       </c>
       <c r="B78" t="n">
         <v>0.8154322504997253</v>
@@ -1906,10 +1752,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1100103</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>1100103</v>
       </c>
       <c r="B79" t="n">
         <v>0.7022662758827209</v>
@@ -1925,10 +1769,8 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>1100104</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>1100104</v>
       </c>
       <c r="B80" t="n">
         <v>0.4602527022361755</v>
@@ -1944,10 +1786,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>1100105</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>1100105</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
@@ -1961,10 +1801,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1100106</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>1100106</v>
       </c>
       <c r="B82" t="n">
         <v>0.6559967994689941</v>
@@ -1980,10 +1818,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1100107</t>
-        </is>
+      <c r="A83" s="1" t="n">
+        <v>1100107</v>
       </c>
       <c r="B83" t="n">
         <v>0.5796709060668945</v>
@@ -1999,10 +1835,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1100108</t>
-        </is>
+      <c r="A84" s="1" t="n">
+        <v>1100108</v>
       </c>
       <c r="B84" t="n">
         <v>0.4806787371635437</v>
@@ -2018,10 +1852,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1100109</t>
-        </is>
+      <c r="A85" s="1" t="n">
+        <v>1100109</v>
       </c>
       <c r="B85" t="n">
         <v>0.6578512191772461</v>
@@ -2037,10 +1869,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>1100110</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>1100110</v>
       </c>
       <c r="B86" t="n">
         <v>0.6340843439102173</v>
@@ -2056,10 +1886,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1100111</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>1100111</v>
       </c>
       <c r="B87" t="n">
         <v>0.7002801895141602</v>
@@ -2075,10 +1903,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>1100112</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>1100112</v>
       </c>
       <c r="B88" t="n">
         <v>0.4914684891700745</v>
@@ -2094,10 +1920,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>1100114</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>1100114</v>
       </c>
       <c r="B89" t="n">
         <v>0.630679726600647</v>
@@ -2113,10 +1937,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>1100115</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>1100115</v>
       </c>
       <c r="B90" t="n">
         <v>0.5003719329833984</v>
@@ -2130,10 +1952,8 @@
       <c r="E90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>1100117</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>1100117</v>
       </c>
       <c r="B91" t="n">
         <v>0.4732171595096588</v>
@@ -2149,10 +1969,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>1100118</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>1100118</v>
       </c>
       <c r="B92" t="n">
         <v>0.500450611114502</v>
@@ -2168,10 +1986,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>1100119</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>1100119</v>
       </c>
       <c r="B93" t="n">
         <v>0.6912092566490173</v>
@@ -2187,10 +2003,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>1110133</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>1110133</v>
       </c>
       <c r="B94" t="n">
         <v>0.7412557601928711</v>
@@ -2202,10 +2016,8 @@
       <c r="E94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>1110134</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>1110134</v>
       </c>
       <c r="B95" t="n">
         <v>0.8683230876922607</v>
@@ -2217,10 +2029,8 @@
       <c r="E95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>1110135</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>1110135</v>
       </c>
       <c r="B96" t="n">
         <v>0.7679597139358521</v>
@@ -2232,10 +2042,8 @@
       <c r="E96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>1110136</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>1110136</v>
       </c>
       <c r="B97" t="n">
         <v>0.7078534364700317</v>
@@ -2247,10 +2055,8 @@
       <c r="E97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>1110137</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>1110137</v>
       </c>
       <c r="B98" t="n">
         <v>0.6759837865829468</v>
@@ -2262,10 +2068,8 @@
       <c r="E98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>1110138</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>1110138</v>
       </c>
       <c r="B99" t="n">
         <v>0.6782317161560059</v>
@@ -2277,10 +2081,8 @@
       <c r="E99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>1110139</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>1110139</v>
       </c>
       <c r="B100" t="n">
         <v>0.8012504577636719</v>
@@ -2292,10 +2094,8 @@
       <c r="E100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>1110140</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>1110140</v>
       </c>
       <c r="B101" t="n">
         <v>0.7709678411483765</v>
@@ -2307,10 +2107,8 @@
       <c r="E101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>1110141</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>1110141</v>
       </c>
       <c r="B102" t="n">
         <v>0.72697913646698</v>
@@ -2322,10 +2120,8 @@
       <c r="E102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>1110142</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>1110142</v>
       </c>
       <c r="B103" t="n">
         <v>0.5342023372650146</v>
@@ -2337,10 +2133,8 @@
       <c r="E103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>1110143</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>1110143</v>
       </c>
       <c r="B104" t="n">
         <v>0.3997960388660431</v>
@@ -2352,10 +2146,8 @@
       <c r="E104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1110144</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>1110144</v>
       </c>
       <c r="B105" t="n">
         <v>0.5718060731887817</v>
@@ -2367,10 +2159,8 @@
       <c r="E105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>1110145</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>1110145</v>
       </c>
       <c r="B106" t="n">
         <v>0.5739610195159912</v>
@@ -2382,10 +2172,8 @@
       <c r="E106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>1110146</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>1110146</v>
       </c>
       <c r="B107" t="n">
         <v>0.6306372880935669</v>
@@ -2397,10 +2185,8 @@
       <c r="E107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>1110147</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>1110147</v>
       </c>
       <c r="B108" t="n">
         <v>0.7215304374694824</v>
@@ -2412,10 +2198,8 @@
       <c r="E108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>1110148</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>1110148</v>
       </c>
       <c r="B109" t="n">
         <v>0.5659373998641968</v>
@@ -2427,10 +2211,8 @@
       <c r="E109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>1110149</t>
-        </is>
+      <c r="A110" s="1" t="n">
+        <v>1110149</v>
       </c>
       <c r="B110" t="n">
         <v>0.6038139462471008</v>
@@ -2442,10 +2224,8 @@
       <c r="E110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>1110150</t>
-        </is>
+      <c r="A111" s="1" t="n">
+        <v>1110150</v>
       </c>
       <c r="B111" t="n">
         <v>0.5507063865661621</v>
@@ -2455,10 +2235,8 @@
       <c r="E111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>1110151</t>
-        </is>
+      <c r="A112" s="1" t="n">
+        <v>1110151</v>
       </c>
       <c r="B112" t="n">
         <v>0.8775882720947266</v>
@@ -2470,10 +2248,8 @@
       <c r="E112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>1110152</t>
-        </is>
+      <c r="A113" s="1" t="n">
+        <v>1110152</v>
       </c>
       <c r="B113" t="n">
         <v>0.9566200971603394</v>
@@ -2485,10 +2261,8 @@
       <c r="E113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>1110153</t>
-        </is>
+      <c r="A114" s="1" t="n">
+        <v>1110153</v>
       </c>
       <c r="B114" t="n">
         <v>0.7332712411880493</v>
@@ -2500,10 +2274,8 @@
       <c r="E114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>1110154</t>
-        </is>
+      <c r="A115" s="1" t="n">
+        <v>1110154</v>
       </c>
       <c r="B115" t="n">
         <v>0.5609755516052246</v>
@@ -2515,10 +2287,8 @@
       <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>1110156</t>
-        </is>
+      <c r="A116" s="1" t="n">
+        <v>1110156</v>
       </c>
       <c r="B116" t="n">
         <v>0.5920734405517578</v>
@@ -2530,10 +2300,8 @@
       <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>1110158</t>
-        </is>
+      <c r="A117" s="1" t="n">
+        <v>1110158</v>
       </c>
       <c r="B117" t="n">
         <v>0.6323555111885071</v>
@@ -2545,10 +2313,8 @@
       <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>1110159</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>1110159</v>
       </c>
       <c r="B118" t="n">
         <v>0.3581017255783081</v>
@@ -2560,10 +2326,8 @@
       <c r="E118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1110160</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>1110160</v>
       </c>
       <c r="B119" t="n">
         <v>0.5575861930847168</v>
@@ -2575,10 +2339,8 @@
       <c r="E119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>1110201</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>1110201</v>
       </c>
       <c r="B120" t="n">
         <v>0.3698970675468445</v>
@@ -2594,10 +2356,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>1110202</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>1110202</v>
       </c>
       <c r="B121" t="n">
         <v>0.6328518986701965</v>
@@ -2613,10 +2373,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>1110203</t>
-        </is>
+      <c r="A122" s="1" t="n">
+        <v>1110203</v>
       </c>
       <c r="B122" t="n">
         <v>0.8459526300430298</v>
@@ -2632,10 +2390,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>1110204</t>
-        </is>
+      <c r="A123" s="1" t="n">
+        <v>1110204</v>
       </c>
       <c r="B123" t="n">
         <v>0.8860903382301331</v>
@@ -2651,10 +2407,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>1110205</t>
-        </is>
+      <c r="A124" s="1" t="n">
+        <v>1110205</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
@@ -2668,10 +2422,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>1110206</t>
-        </is>
+      <c r="A125" s="1" t="n">
+        <v>1110206</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
@@ -2685,10 +2437,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>1110207</t>
-        </is>
+      <c r="A126" s="1" t="n">
+        <v>1110207</v>
       </c>
       <c r="B126" t="n">
         <v>1.000000238418579</v>
@@ -2704,10 +2454,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>1110208</t>
-        </is>
+      <c r="A127" s="1" t="n">
+        <v>1110208</v>
       </c>
       <c r="B127" t="n">
         <v>0.7488197088241577</v>
@@ -2723,10 +2471,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1110209</t>
-        </is>
+      <c r="A128" s="1" t="n">
+        <v>1110209</v>
       </c>
       <c r="B128" t="n">
         <v>0.6938724517822266</v>
@@ -2742,10 +2488,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>1110210</t>
-        </is>
+      <c r="A129" s="1" t="n">
+        <v>1110210</v>
       </c>
       <c r="B129" t="n">
         <v>0.6980853080749512</v>
@@ -2761,10 +2505,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>1110211</t>
-        </is>
+      <c r="A130" s="1" t="n">
+        <v>1110211</v>
       </c>
       <c r="B130" t="n">
         <v>0.5522591471672058</v>
@@ -2780,10 +2522,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>1110212</t>
-        </is>
+      <c r="A131" s="1" t="n">
+        <v>1110212</v>
       </c>
       <c r="B131" t="n">
         <v>0.8277767300605774</v>
@@ -2799,10 +2539,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>1110213</t>
-        </is>
+      <c r="A132" s="1" t="n">
+        <v>1110213</v>
       </c>
       <c r="B132" t="n">
         <v>0.7880979776382446</v>
@@ -2818,10 +2556,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>1110214</t>
-        </is>
+      <c r="A133" s="1" t="n">
+        <v>1110214</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
@@ -2835,10 +2571,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>1110215</t>
-        </is>
+      <c r="A134" s="1" t="n">
+        <v>1110215</v>
       </c>
       <c r="B134" t="n">
         <v>0.7557097673416138</v>
@@ -2854,10 +2588,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>1110216</t>
-        </is>
+      <c r="A135" s="1" t="n">
+        <v>1110216</v>
       </c>
       <c r="B135" t="n">
         <v>1</v>
@@ -2873,10 +2605,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>1110217</t>
-        </is>
+      <c r="A136" s="1" t="n">
+        <v>1110217</v>
       </c>
       <c r="B136" t="n">
         <v>0.4853947162628174</v>
@@ -2892,10 +2622,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>1110218</t>
-        </is>
+      <c r="A137" s="1" t="n">
+        <v>1110218</v>
       </c>
       <c r="B137" t="n">
         <v>0.6926129460334778</v>
@@ -2911,10 +2639,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>1110219</t>
-        </is>
+      <c r="A138" s="1" t="n">
+        <v>1110219</v>
       </c>
       <c r="B138" t="n">
         <v>0.6646533012390137</v>
@@ -2930,10 +2656,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>1110220</t>
-        </is>
+      <c r="A139" s="1" t="n">
+        <v>1110220</v>
       </c>
       <c r="B139" t="n">
         <v>0.7565690279006958</v>
@@ -2947,10 +2671,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>1110221</t>
-        </is>
+      <c r="A140" s="1" t="n">
+        <v>1110221</v>
       </c>
       <c r="B140" t="n">
         <v>0.775701642036438</v>
@@ -2964,10 +2686,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>1110222</t>
-        </is>
+      <c r="A141" s="1" t="n">
+        <v>1110222</v>
       </c>
       <c r="B141" t="n">
         <v>0.5543227791786194</v>
@@ -2983,10 +2703,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>1110223</t>
-        </is>
+      <c r="A142" s="1" t="n">
+        <v>1110223</v>
       </c>
       <c r="B142" t="n">
         <v>0.7027095556259155</v>
@@ -3002,10 +2720,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>1110224</t>
-        </is>
+      <c r="A143" s="1" t="n">
+        <v>1110224</v>
       </c>
       <c r="B143" t="n">
         <v>0.578090488910675</v>
@@ -3021,10 +2737,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>1110225</t>
-        </is>
+      <c r="A144" s="1" t="n">
+        <v>1110225</v>
       </c>
       <c r="B144" t="n">
         <v>0.6859299540519714</v>
@@ -3040,10 +2754,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>1110226</t>
-        </is>
+      <c r="A145" s="1" t="n">
+        <v>1110226</v>
       </c>
       <c r="B145" t="n">
         <v>0.6409748792648315</v>
@@ -3059,10 +2771,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>1110227</t>
-        </is>
+      <c r="A146" s="1" t="n">
+        <v>1110227</v>
       </c>
       <c r="B146" t="n">
         <v>0.349338173866272</v>
@@ -3078,10 +2788,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>1110228</t>
-        </is>
+      <c r="A147" s="1" t="n">
+        <v>1110228</v>
       </c>
       <c r="B147" t="n">
         <v>0.6188170909881592</v>
@@ -3097,10 +2805,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>1110229</t>
-        </is>
+      <c r="A148" s="1" t="n">
+        <v>1110229</v>
       </c>
       <c r="B148" t="n">
         <v>0.748405396938324</v>
@@ -3116,10 +2822,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>1110230</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>1110230</v>
       </c>
       <c r="B149" t="n">
         <v>0.6432008147239685</v>
@@ -3135,10 +2839,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>1100116</t>
-        </is>
+      <c r="A150" s="1" t="n">
+        <v>1100116</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
@@ -3152,707 +2854,379 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>1010101</t>
-        </is>
+      <c r="A151" s="1" t="n">
+        <v>1070116</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>0.7033877372741699</v>
+        <v>0.4598566591739655</v>
       </c>
       <c r="E151" t="n">
-        <v>0.642230749130249</v>
+        <v>0.5971336364746094</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>1010102</t>
-        </is>
+      <c r="A152" s="1" t="n">
+        <v>1080421</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>0.680761456489563</v>
+        <v>0.4653689861297607</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6794728636741638</v>
+        <v>0.8492175340652466</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>1020104</t>
-        </is>
+      <c r="A153" s="1" t="n">
+        <v>1080423</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>0.5696417689323425</v>
+        <v>0.4742042422294617</v>
       </c>
       <c r="E153" t="n">
-        <v>0.6992331147193909</v>
+        <v>0.2750939130783081</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>1020107</t>
-        </is>
+      <c r="A154" s="1" t="n">
+        <v>1110301</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>0.6538860201835632</v>
+        <v>0.8264512419700623</v>
       </c>
       <c r="E154" t="n">
-        <v>0.8356797695159912</v>
+        <v>0.682830810546875</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>1030101</t>
-        </is>
+      <c r="A155" s="1" t="n">
+        <v>1110302</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>0.772061824798584</v>
+        <v>0.8162448406219482</v>
       </c>
       <c r="E155" t="n">
-        <v>0.8453534841537476</v>
+        <v>0.7150863409042358</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>1030104</t>
-        </is>
+      <c r="A156" s="1" t="n">
+        <v>1110303</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>0.5816059112548828</v>
+        <v>0.4100247025489807</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6828793287277222</v>
+        <v>0.5276075601577759</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>1030105</t>
-        </is>
+      <c r="A157" s="1" t="n">
+        <v>1110304</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>0.6305414438247681</v>
+        <v>0.7657504081726074</v>
       </c>
       <c r="E157" t="n">
-        <v>0.7732363939285278</v>
+        <v>0.5659937262535095</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>1040104</t>
-        </is>
+      <c r="A158" s="1" t="n">
+        <v>1110305</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>0.6973846554756165</v>
+        <v>0.7370507717132568</v>
       </c>
       <c r="E158" t="n">
-        <v>0.680214524269104</v>
+        <v>0.6125612258911133</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>1040106</t>
-        </is>
+      <c r="A159" s="1" t="n">
+        <v>1110306</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>0.5597356557846069</v>
+        <v>0.7387571930885315</v>
       </c>
       <c r="E159" t="n">
-        <v>0.7375673651695251</v>
+        <v>0.5465166568756104</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>1050101</t>
-        </is>
+      <c r="A160" s="1" t="n">
+        <v>1110307</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>0.7647584676742554</v>
+        <v>0.5683902502059937</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7430109977722168</v>
+        <v>0.5845332741737366</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>1050102</t>
-        </is>
+      <c r="A161" s="1" t="n">
+        <v>1110308</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>0.7087328433990479</v>
+        <v>0.6053073406219482</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7016257047653198</v>
+        <v>0.7292897701263428</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>1050104</t>
-        </is>
+      <c r="A162" s="1" t="n">
+        <v>1110309</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>0.6754323244094849</v>
+        <v>0.5750089883804321</v>
       </c>
       <c r="E162" t="n">
-        <v>0.693585991859436</v>
+        <v>0.6539128422737122</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>1050105</t>
-        </is>
+      <c r="A163" s="1" t="n">
+        <v>1110310</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>0.6681312322616577</v>
+        <v>0.7747526168823242</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6844143867492676</v>
+        <v>0.5942062735557556</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>1060101</t>
-        </is>
+      <c r="A164" s="1" t="n">
+        <v>1110311</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>0.6311341524124146</v>
+        <v>0.6168196797370911</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7308644652366638</v>
+        <v>0.7462916374206543</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>1060104</t>
-        </is>
+      <c r="A165" s="1" t="n">
+        <v>1110312</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>0.6352252960205078</v>
+        <v>0.7842923402786255</v>
       </c>
       <c r="E165" t="n">
-        <v>0.639520525932312</v>
+        <v>0.6451925039291382</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>1060105</t>
-        </is>
+      <c r="A166" s="1" t="n">
+        <v>1110313</v>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>0.5774576663970947</v>
+        <v>0.6339395046234131</v>
       </c>
       <c r="E166" t="n">
-        <v>0.783703088760376</v>
+        <v>0.7011338472366333</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>1060106a</t>
-        </is>
+      <c r="A167" s="1" t="n">
+        <v>1110314</v>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>0.590177595615387</v>
+        <v>0.6285346150398254</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8094675540924072</v>
+        <v>0.7199323177337646</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>1060106b</t>
-        </is>
+      <c r="A168" s="1" t="n">
+        <v>1110315</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>0.7640188932418823</v>
+        <v>0.7429258823394775</v>
       </c>
       <c r="E168" t="n">
-        <v>0.6780251264572144</v>
+        <v>0.7576414942741394</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>1070116</t>
-        </is>
+      <c r="A169" s="1" t="n">
+        <v>1110316</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>0.4598566591739655</v>
+        <v>0.6880726218223572</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5971336364746094</v>
+        <v>0.7000515460968018</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>1080421</t>
-        </is>
+      <c r="A170" s="1" t="n">
+        <v>1110317</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>0.4653689861297607</v>
+        <v>0.6354477405548096</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8492175340652466</v>
+        <v>0.7188889384269714</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>1080423</t>
-        </is>
+      <c r="A171" s="1" t="n">
+        <v>1110318</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>0.4742042422294617</v>
+        <v>0.7252143621444702</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2750939130783081</v>
+        <v>0.6383742690086365</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>1110301</t>
-        </is>
+      <c r="A172" s="1" t="n">
+        <v>1110319</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>0.8264512419700623</v>
+        <v>0.6578299999237061</v>
       </c>
       <c r="E172" t="n">
-        <v>0.682830810546875</v>
+        <v>0.6624307632446289</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>1110302</t>
-        </is>
+      <c r="A173" s="1" t="n">
+        <v>1110320</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>0.8162448406219482</v>
+        <v>0.7707988619804382</v>
       </c>
       <c r="E173" t="n">
-        <v>0.7150863409042358</v>
+        <v>0.7269974946975708</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>1110303</t>
-        </is>
+      <c r="A174" s="1" t="n">
+        <v>1110321</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>0.4100247025489807</v>
+        <v>0.7792378067970276</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5276075601577759</v>
+        <v>0.7008092403411865</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>1110304</t>
-        </is>
+      <c r="A175" s="1" t="n">
+        <v>1110322</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>0.7657504081726074</v>
+        <v>0.7544870376586914</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5659937262535095</v>
+        <v>0.685026228427887</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>1110305</t>
-        </is>
+      <c r="A176" s="1" t="n">
+        <v>1110323</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>0.7370507717132568</v>
+        <v>0.6544265151023865</v>
       </c>
       <c r="E176" t="n">
-        <v>0.6125612258911133</v>
+        <v>0.7712557315826416</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>1110306</t>
-        </is>
+      <c r="A177" s="1" t="n">
+        <v>1110324</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>0.7387571930885315</v>
+        <v>0.832099974155426</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5465166568756104</v>
+        <v>0.6921529173851013</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>1110307</t>
-        </is>
+      <c r="A178" s="1" t="n">
+        <v>1110325</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>0.5683902502059937</v>
+        <v>0.8597308397293091</v>
       </c>
       <c r="E178" t="n">
-        <v>0.5845332741737366</v>
+        <v>0.7789645195007324</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>1110308</t>
-        </is>
+      <c r="A179" s="1" t="n">
+        <v>1110326</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>0.6053073406219482</v>
+        <v>0.7743117213249207</v>
       </c>
       <c r="E179" t="n">
-        <v>0.7292897701263428</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>1110309</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="n">
-        <v>0.5750089883804321</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0.6539128422737122</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>1110310</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="n">
-        <v>0.7747526168823242</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0.5942062735557556</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>1110311</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="n">
-        <v>0.6168196797370911</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0.7462916374206543</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>1110312</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="n">
-        <v>0.7842923402786255</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0.6451925039291382</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>1110313</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="n">
-        <v>0.6339395046234131</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0.7011338472366333</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>1110314</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="n">
-        <v>0.6285346150398254</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0.7199323177337646</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>1110315</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="n">
-        <v>0.7429258823394775</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0.7576414942741394</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>1110316</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="n">
-        <v>0.6880726218223572</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0.7000515460968018</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>1110317</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="n">
-        <v>0.6354477405548096</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0.7188889384269714</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>1110318</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="n">
-        <v>0.7252143621444702</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0.6383742690086365</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>1110319</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="n">
-        <v>0.6578299999237061</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0.6624307632446289</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>1110320</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="n">
-        <v>0.7707988619804382</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0.7269974946975708</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>1110321</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="n">
-        <v>0.7792378067970276</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0.7008092403411865</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>1110322</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="n">
-        <v>0.7544870376586914</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0.685026228427887</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>1110323</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="n">
-        <v>0.6544265151023865</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0.7712557315826416</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>1110324</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="n">
-        <v>0.832099974155426</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0.6921529173851013</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>1110325</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="n">
-        <v>0.8597308397293091</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0.7789645195007324</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>1110326</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="n">
-        <v>0.7743117213249207</v>
-      </c>
-      <c r="E197" t="n">
         <v>0.8238269090652466</v>
       </c>
     </row>
